--- a/outputs/SORs/SOR Testing_PES APAC.xlsx
+++ b/outputs/SORs/SOR Testing_PES APAC.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">cvd</t>
   </si>
   <si>
-    <t xml:space="preserve">ytd_value</t>
+    <t xml:space="preserve">ytd</t>
   </si>
   <si>
     <t xml:space="preserve">data_source</t>
@@ -604,7 +604,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -675,7 +675,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -746,7 +746,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -1014,7 +1014,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>1</v>
+        <v>0.0639</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -1085,7 +1085,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>1</v>
+        <v>0.0639</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -1156,7 +1156,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>1</v>
+        <v>0.0639</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -1652,19 +1652,19 @@
         <v>0</v>
       </c>
       <c r="S2" s="11" t="n">
-        <v>0.0122</v>
+        <v>0.0128</v>
       </c>
       <c r="T2" s="11" t="n">
-        <v>0.0123</v>
+        <v>0.013</v>
       </c>
       <c r="U2" s="11" t="n">
-        <v>0.038</v>
+        <v>0.04</v>
       </c>
       <c r="V2" s="11" t="n">
-        <v>0.062</v>
+        <v>0.0652</v>
       </c>
       <c r="W2" s="11" t="n">
-        <v>0.0607</v>
+        <v>0.0635</v>
       </c>
     </row>
     <row r="3">
@@ -1723,19 +1723,19 @@
         <v>0</v>
       </c>
       <c r="S3" s="11" t="n">
-        <v>0.01098</v>
+        <v>0.01152</v>
       </c>
       <c r="T3" s="11" t="n">
-        <v>0.01107</v>
+        <v>0.0117</v>
       </c>
       <c r="U3" s="11" t="n">
-        <v>0.0342</v>
+        <v>0.036</v>
       </c>
       <c r="V3" s="11" t="n">
-        <v>0.0558</v>
+        <v>0.05868</v>
       </c>
       <c r="W3" s="11" t="n">
-        <v>0.05463</v>
+        <v>0.05715</v>
       </c>
     </row>
     <row r="4">
@@ -1939,7 +1939,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="11" t="n">
-        <v>1</v>
+        <v>0.0639</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -2010,7 +2010,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="11" t="n">
-        <v>1</v>
+        <v>0.0639</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -2081,7 +2081,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="11" t="n">
-        <v>1</v>
+        <v>0.0639</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -3198,7 +3198,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -3269,7 +3269,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -3340,7 +3340,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -3526,31 +3526,31 @@
         <v>0.0186</v>
       </c>
       <c r="O2" s="3" t="n">
-        <v>0.0182</v>
+        <v>0.0189</v>
       </c>
       <c r="P2" s="3" t="n">
-        <v>0.0182</v>
+        <v>0.0192</v>
       </c>
       <c r="Q2" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R2" s="3" t="n">
-        <v>0.0359</v>
+        <v>0.0377</v>
       </c>
       <c r="S2" s="3" t="n">
         <v>0</v>
       </c>
       <c r="T2" s="3" t="n">
-        <v>0.0169</v>
+        <v>0.0179</v>
       </c>
       <c r="U2" s="3" t="n">
         <v>0</v>
       </c>
       <c r="V2" s="3" t="n">
-        <v>0.017</v>
+        <v>0.018</v>
       </c>
       <c r="W2" s="3" t="n">
-        <v>0.0741</v>
+        <v>0.076</v>
       </c>
     </row>
     <row r="3">
@@ -3597,31 +3597,31 @@
         <v>0.01674</v>
       </c>
       <c r="O3" s="3" t="n">
-        <v>0.01638</v>
+        <v>0.01701</v>
       </c>
       <c r="P3" s="3" t="n">
-        <v>0.01638</v>
+        <v>0.01728</v>
       </c>
       <c r="Q3" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R3" s="3" t="n">
-        <v>0.03231</v>
+        <v>0.03393</v>
       </c>
       <c r="S3" s="3" t="n">
         <v>0</v>
       </c>
       <c r="T3" s="3" t="n">
-        <v>0.01521</v>
+        <v>0.01611</v>
       </c>
       <c r="U3" s="3" t="n">
         <v>0</v>
       </c>
       <c r="V3" s="3" t="n">
-        <v>0.0153</v>
+        <v>0.0162</v>
       </c>
       <c r="W3" s="3" t="n">
-        <v>0.06669</v>
+        <v>0.0684</v>
       </c>
     </row>
     <row r="4">
@@ -3894,7 +3894,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>1</v>
+        <v>0.0639</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -3965,7 +3965,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>1</v>
+        <v>0.0639</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -4036,7 +4036,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="3" t="n">
-        <v>1</v>
+        <v>0.0639</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -4246,7 +4246,7 @@
         <v>0.0234</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0.0238</v>
+        <v>0.0235</v>
       </c>
     </row>
     <row r="3">
@@ -4317,7 +4317,7 @@
         <v>0.02106</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.02142</v>
+        <v>0.02115</v>
       </c>
     </row>
     <row r="4">
@@ -4515,7 +4515,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>1</v>
+        <v>0.0639</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -4586,7 +4586,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>1</v>
+        <v>0.0639</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -4657,7 +4657,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>1</v>
+        <v>0.0639</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -5026,7 +5026,7 @@
         <v>31</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -5097,7 +5097,7 @@
         <v>31</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -5168,7 +5168,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -6029,7 +6029,9 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="8"/>
+      <c r="E2" s="8" t="n">
+        <v>0</v>
+      </c>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -6098,7 +6100,9 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="8"/>
+      <c r="E3" s="8" t="n">
+        <v>0</v>
+      </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -6466,7 +6470,7 @@
         <v>31</v>
       </c>
       <c r="E5" s="9" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -6537,7 +6541,7 @@
         <v>31</v>
       </c>
       <c r="E6" s="9" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -6608,7 +6612,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="9" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>

--- a/outputs/SORs/SOR Testing_PES APAC.xlsx
+++ b/outputs/SORs/SOR Testing_PES APAC.xlsx
@@ -767,40 +767,40 @@
         <v>0.0128</v>
       </c>
       <c r="L4" s="1" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.0128</v>
       </c>
       <c r="M4" s="1" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="O4" s="1" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="1" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="R4" s="1" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S4" s="1" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="T4" s="1" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="V4" s="1" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="W4" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -817,7 +817,7 @@
         <v>30</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -878,7 +878,7 @@
         <v>30</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -949,7 +949,7 @@
         <v>30</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -964,40 +964,40 @@
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" s="1" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="N7" s="1" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O7" s="1" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="P7" s="1" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Q7" s="1" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R7" s="1" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="S7" s="1" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="T7" s="1" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="U7" s="1" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V7" s="1" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="W7" s="1" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8">
@@ -1014,7 +1014,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -1085,7 +1085,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -1156,7 +1156,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -1177,40 +1177,40 @@
         <v>0.0053</v>
       </c>
       <c r="L10" s="1" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.0148</v>
       </c>
       <c r="M10" s="1" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="1" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="R10" s="1" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S10" s="1" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="T10" s="1" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="V10" s="1" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="W10" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1773,7 +1773,7 @@
         <v>0.013</v>
       </c>
       <c r="L4" s="11" t="n">
-        <v>0</v>
+        <v>0.0133</v>
       </c>
       <c r="M4" s="11" t="n">
         <v>0</v>
@@ -1939,7 +1939,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="11" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -2010,7 +2010,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="11" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -2081,7 +2081,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="11" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -2102,40 +2102,40 @@
         <v>0.0024</v>
       </c>
       <c r="L9" s="11" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="M9" s="11" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="N9" s="11" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="O9" s="11" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="P9" s="11" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="11" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="R9" s="11" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S9" s="11" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="T9" s="11" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="U9" s="11" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="V9" s="11" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="W9" s="11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3198,7 +3198,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -3269,7 +3269,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -3340,7 +3340,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -3843,9 +3843,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="3"/>
-      <c r="L7" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="L7" s="3"/>
       <c r="M7" s="3" t="n">
         <v>0</v>
       </c>
@@ -3894,7 +3892,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -3965,7 +3963,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -4036,7 +4034,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="3" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -4057,40 +4055,40 @@
         <v>0.0104</v>
       </c>
       <c r="L10" s="3" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.0177</v>
       </c>
       <c r="M10" s="3" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="N10" s="3" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="O10" s="3" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="P10" s="3" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="3" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="R10" s="3" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S10" s="3" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="T10" s="3" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="U10" s="3" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="V10" s="3" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="W10" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4515,7 +4513,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -4586,7 +4584,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -4657,7 +4655,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -4678,40 +4676,40 @@
         <v>0.0161</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5026,7 +5024,7 @@
         <v>31</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -5097,7 +5095,7 @@
         <v>31</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -5168,7 +5166,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -6420,7 +6418,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="9" t="n">
-        <v>0</v>
+        <v>0.0185</v>
       </c>
       <c r="M4" s="9" t="n">
         <v>0</v>
@@ -6470,7 +6468,7 @@
         <v>31</v>
       </c>
       <c r="E5" s="9" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -6541,7 +6539,7 @@
         <v>31</v>
       </c>
       <c r="E6" s="9" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -6612,7 +6610,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="9" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -6627,13 +6625,13 @@
         <v>0.0168</v>
       </c>
       <c r="J7" s="9" t="n">
-        <v>0.0238</v>
+        <v>0.0237</v>
       </c>
       <c r="K7" s="9" t="n">
-        <v>0.017</v>
+        <v>0.0169</v>
       </c>
       <c r="L7" s="9" t="n">
-        <v>0</v>
+        <v>0.0068</v>
       </c>
       <c r="M7" s="9" t="n">
         <v>0</v>

--- a/outputs/SORs/SOR Testing_PES APAC.xlsx
+++ b/outputs/SORs/SOR Testing_PES APAC.xlsx
@@ -604,7 +604,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>0</v>
+        <v>0.0381</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -675,7 +675,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>0</v>
+        <v>0.0381</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -746,7 +746,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>0</v>
+        <v>0.0381</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -770,37 +770,37 @@
         <v>0.0128</v>
       </c>
       <c r="M4" s="1" t="n">
-        <v>0</v>
+        <v>0.00761666666666667</v>
       </c>
       <c r="N4" s="1" t="n">
-        <v>0</v>
+        <v>0.02285</v>
       </c>
       <c r="O4" s="1" t="n">
-        <v>0</v>
+        <v>0.00761666666666667</v>
       </c>
       <c r="P4" s="1" t="n">
-        <v>0</v>
+        <v>0.00761666666666667</v>
       </c>
       <c r="Q4" s="1" t="n">
-        <v>0</v>
+        <v>0.00761666666666667</v>
       </c>
       <c r="R4" s="1" t="n">
-        <v>0</v>
+        <v>0.02285</v>
       </c>
       <c r="S4" s="1" t="n">
-        <v>0</v>
+        <v>0.00761666666666667</v>
       </c>
       <c r="T4" s="1" t="n">
-        <v>0</v>
+        <v>0.00761666666666667</v>
       </c>
       <c r="U4" s="1" t="n">
-        <v>0</v>
+        <v>0.00761666666666667</v>
       </c>
       <c r="V4" s="1" t="n">
-        <v>0</v>
+        <v>0.02285</v>
       </c>
       <c r="W4" s="1" t="n">
-        <v>0</v>
+        <v>0.0914</v>
       </c>
     </row>
     <row r="5">
@@ -1014,7 +1014,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>0.0776</v>
+        <v>0.0441</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -1085,7 +1085,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>0.0776</v>
+        <v>0.0441</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -1156,7 +1156,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>0.0776</v>
+        <v>0.0441</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -1180,37 +1180,37 @@
         <v>0.0148</v>
       </c>
       <c r="M10" s="1" t="n">
-        <v>0</v>
+        <v>0.00881666666666667</v>
       </c>
       <c r="N10" s="1" t="n">
-        <v>0</v>
+        <v>0.02645</v>
       </c>
       <c r="O10" s="1" t="n">
-        <v>0</v>
+        <v>0.00881666666666667</v>
       </c>
       <c r="P10" s="1" t="n">
-        <v>0</v>
+        <v>0.00881666666666667</v>
       </c>
       <c r="Q10" s="1" t="n">
-        <v>0</v>
+        <v>0.00881666666666667</v>
       </c>
       <c r="R10" s="1" t="n">
-        <v>0</v>
+        <v>0.02645</v>
       </c>
       <c r="S10" s="1" t="n">
-        <v>0</v>
+        <v>0.00881666666666667</v>
       </c>
       <c r="T10" s="1" t="n">
-        <v>0</v>
+        <v>0.00881666666666667</v>
       </c>
       <c r="U10" s="1" t="n">
-        <v>0</v>
+        <v>0.00881666666666667</v>
       </c>
       <c r="V10" s="1" t="n">
-        <v>0</v>
+        <v>0.02645</v>
       </c>
       <c r="W10" s="1" t="n">
-        <v>0</v>
+        <v>0.1058</v>
       </c>
     </row>
   </sheetData>
@@ -1610,7 +1610,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="11" t="n">
-        <v>0</v>
+        <v>0.0525</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -1681,7 +1681,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="11" t="n">
-        <v>0</v>
+        <v>0.0525</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -1752,7 +1752,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="11" t="n">
-        <v>0</v>
+        <v>0.0525</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -1776,37 +1776,37 @@
         <v>0.0133</v>
       </c>
       <c r="M4" s="11" t="n">
-        <v>0</v>
+        <v>0.0105</v>
       </c>
       <c r="N4" s="11" t="n">
-        <v>0</v>
+        <v>0.0315</v>
       </c>
       <c r="O4" s="11" t="n">
-        <v>0</v>
+        <v>0.0105</v>
       </c>
       <c r="P4" s="11" t="n">
-        <v>0</v>
+        <v>0.0105</v>
       </c>
       <c r="Q4" s="11" t="n">
-        <v>0</v>
+        <v>0.0105</v>
       </c>
       <c r="R4" s="11" t="n">
-        <v>0</v>
+        <v>0.0315</v>
       </c>
       <c r="S4" s="11" t="n">
-        <v>0</v>
+        <v>0.0105</v>
       </c>
       <c r="T4" s="11" t="n">
-        <v>0</v>
+        <v>0.0105</v>
       </c>
       <c r="U4" s="11" t="n">
-        <v>0</v>
+        <v>0.0105</v>
       </c>
       <c r="V4" s="11" t="n">
-        <v>0</v>
+        <v>0.0315</v>
       </c>
       <c r="W4" s="11" t="n">
-        <v>0</v>
+        <v>0.126</v>
       </c>
     </row>
     <row r="5">
@@ -1939,7 +1939,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="11" t="n">
-        <v>0.0776</v>
+        <v>0.0167</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -2010,7 +2010,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="11" t="n">
-        <v>0.0776</v>
+        <v>0.0167</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -2081,7 +2081,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="11" t="n">
-        <v>0.0776</v>
+        <v>0.0167</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -2105,37 +2105,37 @@
         <v>0</v>
       </c>
       <c r="M9" s="11" t="n">
-        <v>0</v>
+        <v>0.00334166666666667</v>
       </c>
       <c r="N9" s="11" t="n">
-        <v>0</v>
+        <v>0.010025</v>
       </c>
       <c r="O9" s="11" t="n">
-        <v>0</v>
+        <v>0.00334166666666667</v>
       </c>
       <c r="P9" s="11" t="n">
-        <v>0</v>
+        <v>0.00334166666666667</v>
       </c>
       <c r="Q9" s="11" t="n">
-        <v>0</v>
+        <v>0.00334166666666667</v>
       </c>
       <c r="R9" s="11" t="n">
-        <v>0</v>
+        <v>0.010025</v>
       </c>
       <c r="S9" s="11" t="n">
-        <v>0</v>
+        <v>0.00334166666666667</v>
       </c>
       <c r="T9" s="11" t="n">
-        <v>0</v>
+        <v>0.00334166666666667</v>
       </c>
       <c r="U9" s="11" t="n">
-        <v>0</v>
+        <v>0.00334166666666667</v>
       </c>
       <c r="V9" s="11" t="n">
-        <v>0</v>
+        <v>0.010025</v>
       </c>
       <c r="W9" s="11" t="n">
-        <v>0</v>
+        <v>0.0401</v>
       </c>
     </row>
   </sheetData>
@@ -3198,7 +3198,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -3269,7 +3269,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -3340,7 +3340,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -3496,7 +3496,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>0</v>
+        <v>0.0345</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -3567,7 +3567,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>0</v>
+        <v>0.0345</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -3638,7 +3638,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>0</v>
+        <v>0.0345</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -3662,37 +3662,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="3" t="n">
-        <v>0</v>
+        <v>0.0069</v>
       </c>
       <c r="N4" s="3" t="n">
-        <v>0</v>
+        <v>0.0207</v>
       </c>
       <c r="O4" s="3" t="n">
-        <v>0</v>
+        <v>0.0069</v>
       </c>
       <c r="P4" s="3" t="n">
-        <v>0</v>
+        <v>0.0069</v>
       </c>
       <c r="Q4" s="3" t="n">
-        <v>0</v>
+        <v>0.0069</v>
       </c>
       <c r="R4" s="3" t="n">
-        <v>0</v>
+        <v>0.0207</v>
       </c>
       <c r="S4" s="3" t="n">
-        <v>0</v>
+        <v>0.0069</v>
       </c>
       <c r="T4" s="3" t="n">
-        <v>0</v>
+        <v>0.0069</v>
       </c>
       <c r="U4" s="3" t="n">
-        <v>0</v>
+        <v>0.0069</v>
       </c>
       <c r="V4" s="3" t="n">
-        <v>0</v>
+        <v>0.0207</v>
       </c>
       <c r="W4" s="3" t="n">
-        <v>0</v>
+        <v>0.0828</v>
       </c>
     </row>
     <row r="5">
@@ -3892,7 +3892,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>0.0776</v>
+        <v>0.0486</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -3963,7 +3963,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>0.0776</v>
+        <v>0.0486</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -4034,7 +4034,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="3" t="n">
-        <v>0.0776</v>
+        <v>0.0486</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -4058,37 +4058,37 @@
         <v>0.0177</v>
       </c>
       <c r="M10" s="3" t="n">
-        <v>0</v>
+        <v>0.00971666666666667</v>
       </c>
       <c r="N10" s="3" t="n">
-        <v>0</v>
+        <v>0.02915</v>
       </c>
       <c r="O10" s="3" t="n">
-        <v>0</v>
+        <v>0.00971666666666667</v>
       </c>
       <c r="P10" s="3" t="n">
-        <v>0</v>
+        <v>0.00971666666666667</v>
       </c>
       <c r="Q10" s="3" t="n">
-        <v>0</v>
+        <v>0.00971666666666667</v>
       </c>
       <c r="R10" s="3" t="n">
-        <v>0</v>
+        <v>0.02915</v>
       </c>
       <c r="S10" s="3" t="n">
-        <v>0</v>
+        <v>0.00971666666666667</v>
       </c>
       <c r="T10" s="3" t="n">
-        <v>0</v>
+        <v>0.00971666666666667</v>
       </c>
       <c r="U10" s="3" t="n">
-        <v>0</v>
+        <v>0.00971666666666667</v>
       </c>
       <c r="V10" s="3" t="n">
-        <v>0</v>
+        <v>0.02915</v>
       </c>
       <c r="W10" s="3" t="n">
-        <v>0</v>
+        <v>0.1166</v>
       </c>
     </row>
   </sheetData>
@@ -4513,7 +4513,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>0.0776</v>
+        <v>0.0247</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -4584,7 +4584,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>0.0776</v>
+        <v>0.0247</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -4655,7 +4655,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>0.0776</v>
+        <v>0.0247</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -4679,37 +4679,37 @@
         <v>0</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>0</v>
+        <v>0.00494166666666667</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>0</v>
+        <v>0.014825</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>0</v>
+        <v>0.00494166666666667</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>0</v>
+        <v>0.00494166666666667</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>0</v>
+        <v>0.00494166666666667</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0</v>
+        <v>0.014825</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0</v>
+        <v>0.00494166666666667</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>0</v>
+        <v>0.00494166666666667</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>0</v>
+        <v>0.00494166666666667</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>0</v>
+        <v>0.014825</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>0</v>
+        <v>0.0593</v>
       </c>
     </row>
   </sheetData>
@@ -5024,7 +5024,7 @@
         <v>31</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -5095,7 +5095,7 @@
         <v>31</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -5166,7 +5166,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -6027,9 +6027,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="8"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -6098,9 +6096,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="8"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -6255,7 +6251,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="9" t="n">
-        <v>0</v>
+        <v>0.0185</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -6326,7 +6322,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="9" t="n">
-        <v>0</v>
+        <v>0.0185</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -6397,7 +6393,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="9" t="n">
-        <v>0</v>
+        <v>0.0185</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -6421,37 +6417,37 @@
         <v>0.0185</v>
       </c>
       <c r="M4" s="9" t="n">
-        <v>0</v>
+        <v>0.0037</v>
       </c>
       <c r="N4" s="9" t="n">
-        <v>0</v>
+        <v>0.0111</v>
       </c>
       <c r="O4" s="9" t="n">
-        <v>0</v>
+        <v>0.0037</v>
       </c>
       <c r="P4" s="9" t="n">
-        <v>0</v>
+        <v>0.0037</v>
       </c>
       <c r="Q4" s="9" t="n">
-        <v>0</v>
+        <v>0.0037</v>
       </c>
       <c r="R4" s="9" t="n">
-        <v>0</v>
+        <v>0.0111</v>
       </c>
       <c r="S4" s="9" t="n">
-        <v>0</v>
+        <v>0.0037</v>
       </c>
       <c r="T4" s="9" t="n">
-        <v>0</v>
+        <v>0.0037</v>
       </c>
       <c r="U4" s="9" t="n">
-        <v>0</v>
+        <v>0.0037</v>
       </c>
       <c r="V4" s="9" t="n">
-        <v>0</v>
+        <v>0.0111</v>
       </c>
       <c r="W4" s="9" t="n">
-        <v>0</v>
+        <v>0.0444</v>
       </c>
     </row>
     <row r="5">
@@ -6468,7 +6464,7 @@
         <v>31</v>
       </c>
       <c r="E5" s="9" t="n">
-        <v>0.0776</v>
+        <v>0.0475</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -6539,7 +6535,7 @@
         <v>31</v>
       </c>
       <c r="E6" s="9" t="n">
-        <v>0.0776</v>
+        <v>0.0475</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -6610,7 +6606,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="9" t="n">
-        <v>0.0776</v>
+        <v>0.0475</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -6634,37 +6630,37 @@
         <v>0.0068</v>
       </c>
       <c r="M7" s="9" t="n">
-        <v>0</v>
+        <v>0.0095</v>
       </c>
       <c r="N7" s="9" t="n">
-        <v>0</v>
+        <v>0.0285</v>
       </c>
       <c r="O7" s="9" t="n">
-        <v>0</v>
+        <v>0.0095</v>
       </c>
       <c r="P7" s="9" t="n">
-        <v>0</v>
+        <v>0.0095</v>
       </c>
       <c r="Q7" s="9" t="n">
-        <v>0</v>
+        <v>0.0095</v>
       </c>
       <c r="R7" s="9" t="n">
-        <v>0</v>
+        <v>0.0285</v>
       </c>
       <c r="S7" s="9" t="n">
-        <v>0</v>
+        <v>0.0095</v>
       </c>
       <c r="T7" s="9" t="n">
-        <v>0</v>
+        <v>0.0095</v>
       </c>
       <c r="U7" s="9" t="n">
-        <v>0</v>
+        <v>0.0095</v>
       </c>
       <c r="V7" s="9" t="n">
-        <v>0</v>
+        <v>0.0285</v>
       </c>
       <c r="W7" s="9" t="n">
-        <v>0</v>
+        <v>0.114</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/SORs/SOR Testing_PES APAC.xlsx
+++ b/outputs/SORs/SOR Testing_PES APAC.xlsx
@@ -604,7 +604,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>0.0381</v>
+        <v>0.038</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -675,7 +675,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>0.0381</v>
+        <v>0.038</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -746,7 +746,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>0.0381</v>
+        <v>0.038</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -770,37 +770,37 @@
         <v>0.0128</v>
       </c>
       <c r="M4" s="1" t="n">
-        <v>0.00761666666666667</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1" t="n">
-        <v>0.02285</v>
+        <v>0.0254</v>
       </c>
       <c r="O4" s="1" t="n">
-        <v>0.00761666666666667</v>
+        <v>0.00633333333333333</v>
       </c>
       <c r="P4" s="1" t="n">
-        <v>0.00761666666666667</v>
+        <v>0.00633333333333333</v>
       </c>
       <c r="Q4" s="1" t="n">
-        <v>0.00761666666666667</v>
+        <v>0.00633333333333333</v>
       </c>
       <c r="R4" s="1" t="n">
-        <v>0.02285</v>
+        <v>0.019</v>
       </c>
       <c r="S4" s="1" t="n">
-        <v>0.00761666666666667</v>
+        <v>0.00633333333333333</v>
       </c>
       <c r="T4" s="1" t="n">
-        <v>0.00761666666666667</v>
+        <v>0.00633333333333333</v>
       </c>
       <c r="U4" s="1" t="n">
-        <v>0.00761666666666667</v>
+        <v>0.00633333333333333</v>
       </c>
       <c r="V4" s="1" t="n">
-        <v>0.02285</v>
+        <v>0.019</v>
       </c>
       <c r="W4" s="1" t="n">
-        <v>0.0914</v>
+        <v>0.076</v>
       </c>
     </row>
     <row r="5">
@@ -966,11 +966,9 @@
       <c r="L7" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="M7" s="1" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="M7" s="1"/>
       <c r="N7" s="1" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1" t="n">
         <v>0.5</v>
@@ -1014,7 +1012,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>0.0441</v>
+        <v>0.0696</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -1085,7 +1083,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>0.0441</v>
+        <v>0.0696</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -1156,7 +1154,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>0.0441</v>
+        <v>0.0696</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -1180,37 +1178,37 @@
         <v>0.0148</v>
       </c>
       <c r="M10" s="1" t="n">
-        <v>0.00881666666666667</v>
+        <v>0.0249</v>
       </c>
       <c r="N10" s="1" t="n">
-        <v>0.02645</v>
+        <v>0.0457</v>
       </c>
       <c r="O10" s="1" t="n">
-        <v>0.00881666666666667</v>
+        <v>0.0116</v>
       </c>
       <c r="P10" s="1" t="n">
-        <v>0.00881666666666667</v>
+        <v>0.0116</v>
       </c>
       <c r="Q10" s="1" t="n">
-        <v>0.00881666666666667</v>
+        <v>0.0116</v>
       </c>
       <c r="R10" s="1" t="n">
-        <v>0.02645</v>
+        <v>0.0348</v>
       </c>
       <c r="S10" s="1" t="n">
-        <v>0.00881666666666667</v>
+        <v>0.0116</v>
       </c>
       <c r="T10" s="1" t="n">
-        <v>0.00881666666666667</v>
+        <v>0.0116</v>
       </c>
       <c r="U10" s="1" t="n">
-        <v>0.00881666666666667</v>
+        <v>0.0116</v>
       </c>
       <c r="V10" s="1" t="n">
-        <v>0.02645</v>
+        <v>0.0348</v>
       </c>
       <c r="W10" s="1" t="n">
-        <v>0.1058</v>
+        <v>0.1392</v>
       </c>
     </row>
   </sheetData>
@@ -1776,37 +1774,37 @@
         <v>0.0133</v>
       </c>
       <c r="M4" s="11" t="n">
-        <v>0.0105</v>
+        <v>0</v>
       </c>
       <c r="N4" s="11" t="n">
-        <v>0.0315</v>
+        <v>0.0263</v>
       </c>
       <c r="O4" s="11" t="n">
-        <v>0.0105</v>
+        <v>0.00875</v>
       </c>
       <c r="P4" s="11" t="n">
-        <v>0.0105</v>
+        <v>0.00875</v>
       </c>
       <c r="Q4" s="11" t="n">
-        <v>0.0105</v>
+        <v>0.00875</v>
       </c>
       <c r="R4" s="11" t="n">
-        <v>0.0315</v>
+        <v>0.02625</v>
       </c>
       <c r="S4" s="11" t="n">
-        <v>0.0105</v>
+        <v>0.00875</v>
       </c>
       <c r="T4" s="11" t="n">
-        <v>0.0105</v>
+        <v>0.00875</v>
       </c>
       <c r="U4" s="11" t="n">
-        <v>0.0105</v>
+        <v>0.00875</v>
       </c>
       <c r="V4" s="11" t="n">
-        <v>0.0315</v>
+        <v>0.02625</v>
       </c>
       <c r="W4" s="11" t="n">
-        <v>0.126</v>
+        <v>0.105</v>
       </c>
     </row>
     <row r="5">
@@ -1939,7 +1937,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="11" t="n">
-        <v>0.0167</v>
+        <v>0.0191</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -2010,7 +2008,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="11" t="n">
-        <v>0.0167</v>
+        <v>0.0191</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -2081,7 +2079,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="11" t="n">
-        <v>0.0167</v>
+        <v>0.0191</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -2105,37 +2103,37 @@
         <v>0</v>
       </c>
       <c r="M9" s="11" t="n">
-        <v>0.00334166666666667</v>
+        <v>0.0024</v>
       </c>
       <c r="N9" s="11" t="n">
-        <v>0.010025</v>
+        <v>0.0048</v>
       </c>
       <c r="O9" s="11" t="n">
-        <v>0.00334166666666667</v>
+        <v>0.00318333333333333</v>
       </c>
       <c r="P9" s="11" t="n">
-        <v>0.00334166666666667</v>
+        <v>0.00318333333333333</v>
       </c>
       <c r="Q9" s="11" t="n">
-        <v>0.00334166666666667</v>
+        <v>0.00318333333333333</v>
       </c>
       <c r="R9" s="11" t="n">
-        <v>0.010025</v>
+        <v>0.00955</v>
       </c>
       <c r="S9" s="11" t="n">
-        <v>0.00334166666666667</v>
+        <v>0.00318333333333333</v>
       </c>
       <c r="T9" s="11" t="n">
-        <v>0.00334166666666667</v>
+        <v>0.00318333333333333</v>
       </c>
       <c r="U9" s="11" t="n">
-        <v>0.00334166666666667</v>
+        <v>0.00318333333333333</v>
       </c>
       <c r="V9" s="11" t="n">
-        <v>0.010025</v>
+        <v>0.00955</v>
       </c>
       <c r="W9" s="11" t="n">
-        <v>0.0401</v>
+        <v>0.0382</v>
       </c>
     </row>
   </sheetData>
@@ -3496,7 +3494,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>0.0345</v>
+        <v>0.0693</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -3567,7 +3565,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>0.0345</v>
+        <v>0.0693</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -3638,7 +3636,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>0.0345</v>
+        <v>0.0693</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -3662,37 +3660,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="3" t="n">
-        <v>0.0069</v>
+        <v>0.0357</v>
       </c>
       <c r="N4" s="3" t="n">
-        <v>0.0207</v>
+        <v>0.0524</v>
       </c>
       <c r="O4" s="3" t="n">
-        <v>0.0069</v>
+        <v>0.01155</v>
       </c>
       <c r="P4" s="3" t="n">
-        <v>0.0069</v>
+        <v>0.01155</v>
       </c>
       <c r="Q4" s="3" t="n">
-        <v>0.0069</v>
+        <v>0.01155</v>
       </c>
       <c r="R4" s="3" t="n">
-        <v>0.0207</v>
+        <v>0.03465</v>
       </c>
       <c r="S4" s="3" t="n">
-        <v>0.0069</v>
+        <v>0.01155</v>
       </c>
       <c r="T4" s="3" t="n">
-        <v>0.0069</v>
+        <v>0.01155</v>
       </c>
       <c r="U4" s="3" t="n">
-        <v>0.0069</v>
+        <v>0.01155</v>
       </c>
       <c r="V4" s="3" t="n">
-        <v>0.0207</v>
+        <v>0.03465</v>
       </c>
       <c r="W4" s="3" t="n">
-        <v>0.0828</v>
+        <v>0.1386</v>
       </c>
     </row>
     <row r="5">
@@ -3844,12 +3842,8 @@
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
-      <c r="M7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
       <c r="O7" s="3" t="n">
         <v>0</v>
       </c>
@@ -3892,7 +3886,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>0.0486</v>
+        <v>0.0522</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -3963,7 +3957,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>0.0486</v>
+        <v>0.0522</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -4034,7 +4028,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="3" t="n">
-        <v>0.0486</v>
+        <v>0.0522</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -4058,37 +4052,37 @@
         <v>0.0177</v>
       </c>
       <c r="M10" s="3" t="n">
-        <v>0.00971666666666667</v>
+        <v>0.0035</v>
       </c>
       <c r="N10" s="3" t="n">
-        <v>0.02915</v>
+        <v>0.0317</v>
       </c>
       <c r="O10" s="3" t="n">
-        <v>0.00971666666666667</v>
+        <v>0.0087</v>
       </c>
       <c r="P10" s="3" t="n">
-        <v>0.00971666666666667</v>
+        <v>0.0087</v>
       </c>
       <c r="Q10" s="3" t="n">
-        <v>0.00971666666666667</v>
+        <v>0.0087</v>
       </c>
       <c r="R10" s="3" t="n">
-        <v>0.02915</v>
+        <v>0.0261</v>
       </c>
       <c r="S10" s="3" t="n">
-        <v>0.00971666666666667</v>
+        <v>0.0087</v>
       </c>
       <c r="T10" s="3" t="n">
-        <v>0.00971666666666667</v>
+        <v>0.0087</v>
       </c>
       <c r="U10" s="3" t="n">
-        <v>0.00971666666666667</v>
+        <v>0.0087</v>
       </c>
       <c r="V10" s="3" t="n">
-        <v>0.02915</v>
+        <v>0.0261</v>
       </c>
       <c r="W10" s="3" t="n">
-        <v>0.1166</v>
+        <v>0.1044</v>
       </c>
     </row>
   </sheetData>
@@ -4190,7 +4184,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0</v>
+        <v>0.0478</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -4261,7 +4255,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0</v>
+        <v>0.0478</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -4332,7 +4326,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0</v>
+        <v>0.0478</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -4356,37 +4350,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0</v>
+        <v>0.0488</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0</v>
+        <v>0.0476</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0</v>
+        <v>0.00796666666666667</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0</v>
+        <v>0.00796666666666667</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0</v>
+        <v>0.00796666666666667</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0</v>
+        <v>0.0239</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0</v>
+        <v>0.00796666666666667</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>0</v>
+        <v>0.00796666666666667</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0</v>
+        <v>0.00796666666666667</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0</v>
+        <v>0.0239</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0</v>
+        <v>0.0956</v>
       </c>
     </row>
     <row r="5">
@@ -4513,7 +4507,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>0.0247</v>
+        <v>0.0243</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -4584,7 +4578,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>0.0247</v>
+        <v>0.0243</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -4655,7 +4649,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>0.0247</v>
+        <v>0.0243</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -4679,37 +4673,37 @@
         <v>0</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>0.00494166666666667</v>
+        <v>0</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>0.014825</v>
+        <v>0.0157</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>0.00494166666666667</v>
+        <v>0.00405</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>0.00494166666666667</v>
+        <v>0.00405</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>0.00494166666666667</v>
+        <v>0.00405</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.014825</v>
+        <v>0.01215</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.00494166666666667</v>
+        <v>0.00405</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>0.00494166666666667</v>
+        <v>0.00405</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>0.00494166666666667</v>
+        <v>0.00405</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>0.014825</v>
+        <v>0.01215</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>0.0593</v>
+        <v>0.0486</v>
       </c>
     </row>
   </sheetData>
@@ -6251,7 +6245,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="9" t="n">
-        <v>0.0185</v>
+        <v>0</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -6322,7 +6316,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="9" t="n">
-        <v>0.0185</v>
+        <v>0</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -6393,7 +6387,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="9" t="n">
-        <v>0.0185</v>
+        <v>0</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -6414,40 +6408,40 @@
         <v>0</v>
       </c>
       <c r="L4" s="9" t="n">
-        <v>0.0185</v>
+        <v>0</v>
       </c>
       <c r="M4" s="9" t="n">
-        <v>0.0037</v>
+        <v>0</v>
       </c>
       <c r="N4" s="9" t="n">
-        <v>0.0111</v>
+        <v>0</v>
       </c>
       <c r="O4" s="9" t="n">
-        <v>0.0037</v>
+        <v>0</v>
       </c>
       <c r="P4" s="9" t="n">
-        <v>0.0037</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="9" t="n">
-        <v>0.0037</v>
+        <v>0</v>
       </c>
       <c r="R4" s="9" t="n">
-        <v>0.0111</v>
+        <v>0</v>
       </c>
       <c r="S4" s="9" t="n">
-        <v>0.0037</v>
+        <v>0</v>
       </c>
       <c r="T4" s="9" t="n">
-        <v>0.0037</v>
+        <v>0</v>
       </c>
       <c r="U4" s="9" t="n">
-        <v>0.0037</v>
+        <v>0</v>
       </c>
       <c r="V4" s="9" t="n">
-        <v>0.0111</v>
+        <v>0</v>
       </c>
       <c r="W4" s="9" t="n">
-        <v>0.0444</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -6464,7 +6458,7 @@
         <v>31</v>
       </c>
       <c r="E5" s="9" t="n">
-        <v>0.0475</v>
+        <v>0.054</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -6535,7 +6529,7 @@
         <v>31</v>
       </c>
       <c r="E6" s="9" t="n">
-        <v>0.0475</v>
+        <v>0.054</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -6606,7 +6600,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="9" t="n">
-        <v>0.0475</v>
+        <v>0.054</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -6630,37 +6624,37 @@
         <v>0.0068</v>
       </c>
       <c r="M7" s="9" t="n">
-        <v>0.0095</v>
+        <v>0.0066</v>
       </c>
       <c r="N7" s="9" t="n">
-        <v>0.0285</v>
+        <v>0.0302</v>
       </c>
       <c r="O7" s="9" t="n">
-        <v>0.0095</v>
+        <v>0.009</v>
       </c>
       <c r="P7" s="9" t="n">
-        <v>0.0095</v>
+        <v>0.009</v>
       </c>
       <c r="Q7" s="9" t="n">
-        <v>0.0095</v>
+        <v>0.009</v>
       </c>
       <c r="R7" s="9" t="n">
-        <v>0.0285</v>
+        <v>0.027</v>
       </c>
       <c r="S7" s="9" t="n">
-        <v>0.0095</v>
+        <v>0.009</v>
       </c>
       <c r="T7" s="9" t="n">
-        <v>0.0095</v>
+        <v>0.009</v>
       </c>
       <c r="U7" s="9" t="n">
-        <v>0.0095</v>
+        <v>0.009</v>
       </c>
       <c r="V7" s="9" t="n">
-        <v>0.0285</v>
+        <v>0.027</v>
       </c>
       <c r="W7" s="9" t="n">
-        <v>0.114</v>
+        <v>0.108</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/SORs/SOR Testing_PES APAC.xlsx
+++ b/outputs/SORs/SOR Testing_PES APAC.xlsx
@@ -604,7 +604,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>0.038</v>
+        <v>0.0754</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -675,7 +675,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>0.038</v>
+        <v>0.0754</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -746,7 +746,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>0.038</v>
+        <v>0.0754</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -776,31 +776,31 @@
         <v>0.0254</v>
       </c>
       <c r="O4" s="1" t="n">
-        <v>0.00633333333333333</v>
+        <v>0.0361</v>
       </c>
       <c r="P4" s="1" t="n">
-        <v>0.00633333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="1" t="n">
-        <v>0.00633333333333333</v>
+        <v>0</v>
       </c>
       <c r="R4" s="1" t="n">
-        <v>0.019</v>
+        <v>0</v>
       </c>
       <c r="S4" s="1" t="n">
-        <v>0.00633333333333333</v>
+        <v>0</v>
       </c>
       <c r="T4" s="1" t="n">
-        <v>0.00633333333333333</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1" t="n">
-        <v>0.00633333333333333</v>
+        <v>0</v>
       </c>
       <c r="V4" s="1" t="n">
-        <v>0.019</v>
+        <v>0</v>
       </c>
       <c r="W4" s="1" t="n">
-        <v>0.076</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -817,7 +817,7 @@
         <v>30</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>0.5</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -878,7 +878,7 @@
         <v>30</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>0.5</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -949,7 +949,7 @@
         <v>30</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>0.5</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -971,31 +971,31 @@
         <v>0</v>
       </c>
       <c r="O7" s="1" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1" t="n">
-        <v>0.5</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Q7" s="1" t="n">
-        <v>0.5</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="R7" s="1" t="n">
-        <v>0.5</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="S7" s="1" t="n">
-        <v>0.5</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="T7" s="1" t="n">
-        <v>0.5</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="U7" s="1" t="n">
-        <v>0.5</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="V7" s="1" t="n">
-        <v>0.5</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="W7" s="1" t="n">
-        <v>0.5</v>
+        <v>0.333333333333333</v>
       </c>
     </row>
     <row r="8">
@@ -1012,7 +1012,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>0.0696</v>
+        <v>0.0809</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -1083,7 +1083,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>0.0696</v>
+        <v>0.0809</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -1154,7 +1154,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>0.0696</v>
+        <v>0.0809</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -1184,31 +1184,31 @@
         <v>0.0457</v>
       </c>
       <c r="O10" s="1" t="n">
-        <v>0.0116</v>
+        <v>0.0113</v>
       </c>
       <c r="P10" s="1" t="n">
-        <v>0.0116</v>
+        <v>0.0115583333333333</v>
       </c>
       <c r="Q10" s="1" t="n">
-        <v>0.0116</v>
+        <v>0.0115583333333333</v>
       </c>
       <c r="R10" s="1" t="n">
-        <v>0.0348</v>
+        <v>0.034675</v>
       </c>
       <c r="S10" s="1" t="n">
-        <v>0.0116</v>
+        <v>0.0115583333333333</v>
       </c>
       <c r="T10" s="1" t="n">
-        <v>0.0116</v>
+        <v>0.0115583333333333</v>
       </c>
       <c r="U10" s="1" t="n">
-        <v>0.0116</v>
+        <v>0.0115583333333333</v>
       </c>
       <c r="V10" s="1" t="n">
-        <v>0.0348</v>
+        <v>0.034675</v>
       </c>
       <c r="W10" s="1" t="n">
-        <v>0.1392</v>
+        <v>0.1387</v>
       </c>
     </row>
   </sheetData>
@@ -1608,7 +1608,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="11" t="n">
-        <v>0.0525</v>
+        <v>0.0522</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -1679,7 +1679,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="11" t="n">
-        <v>0.0525</v>
+        <v>0.0522</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -1750,7 +1750,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="11" t="n">
-        <v>0.0525</v>
+        <v>0.0522</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -1780,31 +1780,31 @@
         <v>0.0263</v>
       </c>
       <c r="O4" s="11" t="n">
-        <v>0.00875</v>
+        <v>0</v>
       </c>
       <c r="P4" s="11" t="n">
-        <v>0.00875</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="11" t="n">
-        <v>0.00875</v>
+        <v>0</v>
       </c>
       <c r="R4" s="11" t="n">
-        <v>0.02625</v>
+        <v>0</v>
       </c>
       <c r="S4" s="11" t="n">
-        <v>0.00875</v>
+        <v>0</v>
       </c>
       <c r="T4" s="11" t="n">
-        <v>0.00875</v>
+        <v>0</v>
       </c>
       <c r="U4" s="11" t="n">
-        <v>0.00875</v>
+        <v>0</v>
       </c>
       <c r="V4" s="11" t="n">
-        <v>0.02625</v>
+        <v>0</v>
       </c>
       <c r="W4" s="11" t="n">
-        <v>0.105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1937,7 +1937,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="11" t="n">
-        <v>0.0191</v>
+        <v>0.0214</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -2008,7 +2008,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="11" t="n">
-        <v>0.0191</v>
+        <v>0.0214</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -2079,7 +2079,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="11" t="n">
-        <v>0.0191</v>
+        <v>0.0214</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -2109,31 +2109,31 @@
         <v>0.0048</v>
       </c>
       <c r="O9" s="11" t="n">
-        <v>0.00318333333333333</v>
+        <v>0.0024</v>
       </c>
       <c r="P9" s="11" t="n">
-        <v>0.00318333333333333</v>
+        <v>0.00305833333333333</v>
       </c>
       <c r="Q9" s="11" t="n">
-        <v>0.00318333333333333</v>
+        <v>0.00305833333333333</v>
       </c>
       <c r="R9" s="11" t="n">
-        <v>0.00955</v>
+        <v>0.009175</v>
       </c>
       <c r="S9" s="11" t="n">
-        <v>0.00318333333333333</v>
+        <v>0.00305833333333333</v>
       </c>
       <c r="T9" s="11" t="n">
-        <v>0.00318333333333333</v>
+        <v>0.00305833333333333</v>
       </c>
       <c r="U9" s="11" t="n">
-        <v>0.00318333333333333</v>
+        <v>0.00305833333333333</v>
       </c>
       <c r="V9" s="11" t="n">
-        <v>0.00955</v>
+        <v>0.009175</v>
       </c>
       <c r="W9" s="11" t="n">
-        <v>0.0382</v>
+        <v>0.0367</v>
       </c>
     </row>
   </sheetData>
@@ -2234,9 +2234,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="12"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -2289,9 +2287,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="12"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -2328,77 +2324,6 @@
         <v>0</v>
       </c>
       <c r="W3" s="12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3494,7 +3419,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>0.0693</v>
+        <v>0.0685</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -3565,7 +3490,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>0.0693</v>
+        <v>0.0685</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -3636,7 +3561,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>0.0693</v>
+        <v>0.0685</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -3645,52 +3570,52 @@
         <v>0</v>
       </c>
       <c r="H4" s="3" t="n">
-        <v>0.0172</v>
+        <v>0.0169</v>
       </c>
       <c r="I4" s="3" t="n">
         <v>0</v>
       </c>
       <c r="J4" s="3" t="n">
-        <v>0.0172</v>
+        <v>0.0169</v>
       </c>
       <c r="K4" s="3" t="n">
-        <v>0.0172</v>
+        <v>0.0169</v>
       </c>
       <c r="L4" s="3" t="n">
         <v>0</v>
       </c>
       <c r="M4" s="3" t="n">
-        <v>0.0357</v>
+        <v>0.0351</v>
       </c>
       <c r="N4" s="3" t="n">
-        <v>0.0524</v>
+        <v>0.0515</v>
       </c>
       <c r="O4" s="3" t="n">
-        <v>0.01155</v>
+        <v>0</v>
       </c>
       <c r="P4" s="3" t="n">
-        <v>0.01155</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="3" t="n">
-        <v>0.01155</v>
+        <v>0</v>
       </c>
       <c r="R4" s="3" t="n">
-        <v>0.03465</v>
+        <v>0</v>
       </c>
       <c r="S4" s="3" t="n">
-        <v>0.01155</v>
+        <v>0</v>
       </c>
       <c r="T4" s="3" t="n">
-        <v>0.01155</v>
+        <v>0</v>
       </c>
       <c r="U4" s="3" t="n">
-        <v>0.01155</v>
+        <v>0</v>
       </c>
       <c r="V4" s="3" t="n">
-        <v>0.03465</v>
+        <v>0</v>
       </c>
       <c r="W4" s="3" t="n">
-        <v>0.1386</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -3844,9 +3769,7 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
-      <c r="O7" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="O7" s="3"/>
       <c r="P7" s="3" t="n">
         <v>0</v>
       </c>
@@ -3886,7 +3809,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>0.0522</v>
+        <v>0.0561</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -3957,7 +3880,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>0.0522</v>
+        <v>0.0561</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -4028,7 +3951,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="3" t="n">
-        <v>0.0522</v>
+        <v>0.0561</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -4037,52 +3960,52 @@
         <v>0.0069</v>
       </c>
       <c r="H10" s="3" t="n">
-        <v>0.0034</v>
+        <v>0.0035</v>
       </c>
       <c r="I10" s="3" t="n">
-        <v>0.0103</v>
+        <v>0.0104</v>
       </c>
       <c r="J10" s="3" t="n">
         <v>0.0207</v>
       </c>
       <c r="K10" s="3" t="n">
-        <v>0.0104</v>
+        <v>0.0105</v>
       </c>
       <c r="L10" s="3" t="n">
-        <v>0.0177</v>
+        <v>0.0178</v>
       </c>
       <c r="M10" s="3" t="n">
-        <v>0.0035</v>
+        <v>0.0036</v>
       </c>
       <c r="N10" s="3" t="n">
-        <v>0.0317</v>
+        <v>0.0318</v>
       </c>
       <c r="O10" s="3" t="n">
-        <v>0.0087</v>
+        <v>0.0036</v>
       </c>
       <c r="P10" s="3" t="n">
-        <v>0.0087</v>
+        <v>0.00801666666666667</v>
       </c>
       <c r="Q10" s="3" t="n">
-        <v>0.0087</v>
+        <v>0.00801666666666667</v>
       </c>
       <c r="R10" s="3" t="n">
-        <v>0.0261</v>
+        <v>0.02405</v>
       </c>
       <c r="S10" s="3" t="n">
-        <v>0.0087</v>
+        <v>0.00801666666666667</v>
       </c>
       <c r="T10" s="3" t="n">
-        <v>0.0087</v>
+        <v>0.00801666666666667</v>
       </c>
       <c r="U10" s="3" t="n">
-        <v>0.0087</v>
+        <v>0.00801666666666667</v>
       </c>
       <c r="V10" s="3" t="n">
-        <v>0.0261</v>
+        <v>0.02405</v>
       </c>
       <c r="W10" s="3" t="n">
-        <v>0.1044</v>
+        <v>0.0962</v>
       </c>
     </row>
   </sheetData>
@@ -4184,7 +4107,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.0478</v>
+        <v>0.048</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -4255,7 +4178,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.0478</v>
+        <v>0.048</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -4326,7 +4249,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.0478</v>
+        <v>0.048</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -4356,31 +4279,31 @@
         <v>0.0476</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.00796666666666667</v>
+        <v>0</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.00796666666666667</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.00796666666666667</v>
+        <v>0</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.0239</v>
+        <v>0</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.00796666666666667</v>
+        <v>0</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>0.00796666666666667</v>
+        <v>0</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0.00796666666666667</v>
+        <v>0</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.0239</v>
+        <v>0</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.0956</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -4507,7 +4430,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>0.0243</v>
+        <v>0.0317</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -4578,7 +4501,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>0.0243</v>
+        <v>0.0317</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -4649,7 +4572,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>0.0243</v>
+        <v>0.0317</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -4679,31 +4602,31 @@
         <v>0.0157</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>0.00405</v>
+        <v>0.0071</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>0.00405</v>
+        <v>0.004525</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>0.00405</v>
+        <v>0.004525</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.01215</v>
+        <v>0.013575</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.00405</v>
+        <v>0.004525</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>0.00405</v>
+        <v>0.004525</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>0.00405</v>
+        <v>0.004525</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>0.01215</v>
+        <v>0.013575</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>0.0486</v>
+        <v>0.0543</v>
       </c>
     </row>
   </sheetData>
@@ -6455,64 +6378,48 @@
         <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5" s="9" t="n">
-        <v>0.054</v>
+        <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" s="9" t="n">
-        <v>0.0036</v>
-      </c>
-      <c r="L5" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" s="9" t="n">
-        <v>0.0035</v>
-      </c>
-      <c r="N5" s="9" t="n">
-        <v>0.0071</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
       <c r="O5" s="9" t="n">
-        <v>0.0141</v>
+        <v>0</v>
       </c>
       <c r="P5" s="9" t="n">
-        <v>0.007</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="9" t="n">
         <v>0</v>
       </c>
       <c r="R5" s="9" t="n">
-        <v>0.021</v>
+        <v>0</v>
       </c>
       <c r="S5" s="9" t="n">
-        <v>0.0035</v>
+        <v>0</v>
       </c>
       <c r="T5" s="9" t="n">
-        <v>0.0035</v>
+        <v>0</v>
       </c>
       <c r="U5" s="9" t="n">
         <v>0</v>
       </c>
       <c r="V5" s="9" t="n">
-        <v>0.0069</v>
+        <v>0</v>
       </c>
       <c r="W5" s="9" t="n">
-        <v>0.0354</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -6529,10 +6436,10 @@
         <v>31</v>
       </c>
       <c r="E6" s="9" t="n">
-        <v>0.054</v>
+        <v>0.0604</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G6" s="9" t="n">
         <v>0</v>
@@ -6547,43 +6454,43 @@
         <v>0</v>
       </c>
       <c r="K6" s="9" t="n">
-        <v>0.00324</v>
+        <v>0.0036</v>
       </c>
       <c r="L6" s="9" t="n">
         <v>0</v>
       </c>
       <c r="M6" s="9" t="n">
-        <v>0.00315</v>
+        <v>0.0035</v>
       </c>
       <c r="N6" s="9" t="n">
-        <v>0.00639</v>
+        <v>0.0071</v>
       </c>
       <c r="O6" s="9" t="n">
-        <v>0.01269</v>
+        <v>0.0141</v>
       </c>
       <c r="P6" s="9" t="n">
-        <v>0.0063</v>
+        <v>0.007</v>
       </c>
       <c r="Q6" s="9" t="n">
         <v>0</v>
       </c>
       <c r="R6" s="9" t="n">
-        <v>0.0189</v>
+        <v>0.021</v>
       </c>
       <c r="S6" s="9" t="n">
-        <v>0.00315</v>
+        <v>0.0035</v>
       </c>
       <c r="T6" s="9" t="n">
-        <v>0.00315</v>
+        <v>0.0035</v>
       </c>
       <c r="U6" s="9" t="n">
         <v>0</v>
       </c>
       <c r="V6" s="9" t="n">
-        <v>0.00621</v>
+        <v>0.0069</v>
       </c>
       <c r="W6" s="9" t="n">
-        <v>0.03186</v>
+        <v>0.0354</v>
       </c>
     </row>
     <row r="7">
@@ -6600,61 +6507,132 @@
         <v>31</v>
       </c>
       <c r="E7" s="9" t="n">
-        <v>0.054</v>
+        <v>0.0604</v>
       </c>
       <c r="F7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="9" t="n">
+        <v>0.00324</v>
+      </c>
+      <c r="L7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="9" t="n">
+        <v>0.00315</v>
+      </c>
+      <c r="N7" s="9" t="n">
+        <v>0.00639</v>
+      </c>
+      <c r="O7" s="9" t="n">
+        <v>0.01269</v>
+      </c>
+      <c r="P7" s="9" t="n">
+        <v>0.0063</v>
+      </c>
+      <c r="Q7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" s="9" t="n">
+        <v>0.0189</v>
+      </c>
+      <c r="S7" s="9" t="n">
+        <v>0.00315</v>
+      </c>
+      <c r="T7" s="9" t="n">
+        <v>0.00315</v>
+      </c>
+      <c r="U7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" s="9" t="n">
+        <v>0.00621</v>
+      </c>
+      <c r="W7" s="9" t="n">
+        <v>0.03186</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="9" t="n">
+        <v>0.0604</v>
+      </c>
+      <c r="F8" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="9" t="n">
+      <c r="G8" s="9" t="n">
         <v>0.0034</v>
       </c>
-      <c r="H7" s="9" t="n">
+      <c r="H8" s="9" t="n">
         <v>0.0034</v>
       </c>
-      <c r="I7" s="9" t="n">
+      <c r="I8" s="9" t="n">
         <v>0.0168</v>
       </c>
-      <c r="J7" s="9" t="n">
+      <c r="J8" s="9" t="n">
         <v>0.0237</v>
       </c>
-      <c r="K7" s="9" t="n">
+      <c r="K8" s="9" t="n">
         <v>0.0169</v>
       </c>
-      <c r="L7" s="9" t="n">
+      <c r="L8" s="9" t="n">
         <v>0.0068</v>
       </c>
-      <c r="M7" s="9" t="n">
+      <c r="M8" s="9" t="n">
         <v>0.0066</v>
       </c>
-      <c r="N7" s="9" t="n">
+      <c r="N8" s="9" t="n">
         <v>0.0302</v>
       </c>
-      <c r="O7" s="9" t="n">
-        <v>0.009</v>
-      </c>
-      <c r="P7" s="9" t="n">
-        <v>0.009</v>
-      </c>
-      <c r="Q7" s="9" t="n">
-        <v>0.009</v>
-      </c>
-      <c r="R7" s="9" t="n">
-        <v>0.027</v>
-      </c>
-      <c r="S7" s="9" t="n">
-        <v>0.009</v>
-      </c>
-      <c r="T7" s="9" t="n">
-        <v>0.009</v>
-      </c>
-      <c r="U7" s="9" t="n">
-        <v>0.009</v>
-      </c>
-      <c r="V7" s="9" t="n">
-        <v>0.027</v>
-      </c>
-      <c r="W7" s="9" t="n">
-        <v>0.108</v>
+      <c r="O8" s="9" t="n">
+        <v>0.0065</v>
+      </c>
+      <c r="P8" s="9" t="n">
+        <v>0.008625</v>
+      </c>
+      <c r="Q8" s="9" t="n">
+        <v>0.008625</v>
+      </c>
+      <c r="R8" s="9" t="n">
+        <v>0.025875</v>
+      </c>
+      <c r="S8" s="9" t="n">
+        <v>0.008625</v>
+      </c>
+      <c r="T8" s="9" t="n">
+        <v>0.008625</v>
+      </c>
+      <c r="U8" s="9" t="n">
+        <v>0.008625</v>
+      </c>
+      <c r="V8" s="9" t="n">
+        <v>0.025875</v>
+      </c>
+      <c r="W8" s="9" t="n">
+        <v>0.1035</v>
       </c>
     </row>
   </sheetData>
